--- a/resources/TestData/RoomRequestPage.xlsx
+++ b/resources/TestData/RoomRequestPage.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abinayavarshini.ram\git\RBT\RBT\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abinayavarshini.ram\Downloads\RBT-master (1)\RBT-master\RBT\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="singleBooking" sheetId="34" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Test Data</t>
   </si>
@@ -63,13 +63,10 @@
     <t>Ranaswami, Abinayavarshini</t>
   </si>
   <si>
-    <t>Tue 02/27/2020</t>
-  </si>
-  <si>
     <t>08:30:00 PM</t>
   </si>
   <si>
-    <t>Tue 02/28/2020</t>
+    <t>Tue 03/17/2020</t>
   </si>
 </sst>
 </file>
@@ -406,8 +403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,10 +440,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
@@ -468,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,7 +501,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
